--- a/towers/TowersNew.xlsx
+++ b/towers/TowersNew.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spec\Documents\GitHub\TowerDefense\towers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5D72A2-A1CA-49F9-827D-F1D6957732CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B11EC4-23A2-416A-823B-DDBE7D70D5F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{77B776D3-CB80-430E-BB3F-2CE5DE630DB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="259">
   <si>
     <t>Rogue</t>
   </si>
@@ -947,7 +948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -955,12 +956,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -988,12 +1000,30 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -1013,14 +1043,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1051,15 +1073,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1174,18 +1187,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C71BA424-C6F6-4A20-B1B0-375AB36E248B}" name="Table1" displayName="Table1" ref="A1:AC59" tableType="xml" totalsRowShown="0" headerRowDxfId="12" connectionId="7">
   <autoFilter ref="A1:AC59" xr:uid="{7E13DCAC-A1A1-4793-A40C-C0AAEFCA7A3B}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC59">
-    <sortCondition ref="R2:R59"/>
+    <sortCondition ref="A2:A59"/>
   </sortState>
   <tableColumns count="29">
     <tableColumn id="28" xr3:uid="{0B968059-2AC4-4D53-B7AA-C17CD74FEE7C}" uniqueName="28" name="ID" dataDxfId="11"/>
     <tableColumn id="29" xr3:uid="{167549F5-68A9-4EFE-B754-17071D6A1987}" uniqueName="29" name="Tier" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="8">
+    <tableColumn id="9" xr3:uid="{CDADC387-2692-4651-A063-1A76B0415D0D}" uniqueName="bulletFrame" name="T.Cost" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{3165D01F-EC46-48DE-8129-008D610D5BB8}" uniqueName="fireSoundString" name="Max DPS" dataDxfId="9">
       <calculatedColumnFormula>SUM(K2*(24/L2))*J2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="Gold/MaxDPS" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{DBB8675E-7724-4CE7-AC9D-3B5B328DB5AC}" uniqueName="AoE" name="maxHits" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{A26755EC-DC65-4209-BFD6-9F0002BCD397}" uniqueName="upgradeOne" name="Gold/MaxDPS" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BD04A9ED-09E4-4C2F-9A1E-376D27897506}" uniqueName="Name" name="Name" dataDxfId="6">
       <xmlColumnPr mapId="9" xpath="/Root/Row/Name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{CB4E03FE-21CD-4530-A347-9FF12F372BD1}" uniqueName="AoE" name="AoE">
@@ -1197,13 +1210,14 @@
     <tableColumn id="5" xr3:uid="{B9C30279-F32E-41E3-B3B1-374F41B7EA21}" uniqueName="of_Targets" name="# of Targets">
       <xmlColumnPr mapId="9" xpath="/Root/Row/of_Targets" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{C158085E-F6FA-4A44-B100-6EA300E835B5}" uniqueName="Dmg" name="Dmg" dataDxfId="0">
+      <calculatedColumnFormula>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</calculatedColumnFormula>
       <xmlColumnPr mapId="9" xpath="/Root/Row/Dmg" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{1207337A-E6BF-4DD9-AB32-5D838856DA34}" uniqueName="Atk_Speed" name="Atk Speed" dataDxfId="5">
       <xmlColumnPr mapId="9" xpath="/Root/Row/Atk_Speed" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{EB7D4130-A460-4772-B3AD-98C34232A5B7}" uniqueName="Cost" name="Cost" dataDxfId="4">
       <xmlColumnPr mapId="9" xpath="/Root/Row/Cost" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{960B1B92-4605-4C0A-9012-0A2C4A9B7786}" uniqueName="Type" name="Type">
@@ -1212,7 +1226,7 @@
     <tableColumn id="16" xr3:uid="{C3F60BD1-F34D-480E-93CD-521D41E09EB5}" uniqueName="bulletFrame" name="bulletFrame">
       <xmlColumnPr mapId="9" xpath="/Root/Row/bulletFrame" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{D8011812-4E3C-4FF1-80E9-B55E15FBC05C}" uniqueName="bulletHit" name="bulletHit" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{D8011812-4E3C-4FF1-80E9-B55E15FBC05C}" uniqueName="bulletHit" name="bulletHit" dataDxfId="3">
       <xmlColumnPr mapId="9" xpath="/Root/Row/bulletHit" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="17" xr3:uid="{D6FE27F0-9BA9-4042-A2FB-7EB813A3CD4E}" uniqueName="bulletSpeed" name="bulletSpeed">
@@ -1224,7 +1238,7 @@
     <tableColumn id="19" xr3:uid="{483C72D6-B33C-452D-BE8F-E524D370C58C}" uniqueName="fireSoundString" name="fireSoundString">
       <xmlColumnPr mapId="9" xpath="/Root/Row/fireSoundString" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B96E635B-FFE7-484F-A6BD-839BE5FD13B6}" uniqueName="hitSoundString" name="hitSoundString" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{B96E635B-FFE7-484F-A6BD-839BE5FD13B6}" uniqueName="hitSoundString" name="hitSoundString" dataDxfId="2">
       <xmlColumnPr mapId="9" xpath="/Root/Row/hitSoundString" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{1B12F4CC-722E-4BFB-9EA8-7BC8CB93A247}" uniqueName="upgradeOne" name="upgradeOne">
@@ -1562,7 +1576,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="A19" sqref="A19"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
+      <selection pane="topRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,7 +1591,7 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -1696,48 +1710,49 @@
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" s="17">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="e">
-        <f>#REF!+Table1[[#This Row],[Cost]]</f>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>40</v>
       </c>
       <c r="D2" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>243.42857142857142</v>
-      </c>
-      <c r="E2" s="26">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="F2" s="19">
-        <v>1.3099415204678364</v>
+        <v>2.31</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>71</v>
+        <f>ROUNDDOWN((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>12</v>
       </c>
       <c r="L2" s="2">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M2" s="3">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>189</v>
@@ -1746,10 +1761,10 @@
         <v>230</v>
       </c>
       <c r="Q2" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R2" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>48</v>
@@ -1757,61 +1772,66 @@
       <c r="T2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
+      <c r="U2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="X2" s="4"/>
-      <c r="Y2" s="4" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <f>Table1[[#This Row],[Cost]]</f>
-        <v>40</v>
+        <f>C2+Table1[[#This Row],[Cost]]</f>
+        <v>130</v>
       </c>
       <c r="D3" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>17.333333333333332</v>
+        <v>56.470588235294123</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F3" s="19">
-        <v>2.3076923076923079</v>
+        <v>2.31</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>13</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>40</v>
       </c>
       <c r="L3" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3" s="3">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="N3" s="4" t="s">
         <v>23</v>
@@ -1823,10 +1843,10 @@
         <v>230</v>
       </c>
       <c r="Q3" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R3" s="5">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>48</v>
@@ -1835,70 +1855,71 @@
         <v>56</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>88</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="W3" s="4"/>
       <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="Y3" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B4" s="17">
         <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>C3+Table1[[#This Row],[Cost]]</f>
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D4" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>420.92307692307696</v>
-      </c>
-      <c r="E4" s="26">
-        <v>3</v>
+        <v>133.5</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="F4" s="19">
-        <v>1.0444444444444445</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>76</v>
+        <v>2.31</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <v>152</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>89</v>
       </c>
       <c r="L4" s="2">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M4" s="3">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>230</v>
@@ -1907,10 +1928,10 @@
         <v>30</v>
       </c>
       <c r="R4" s="5">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>222</v>
+        <v>48</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>56</v>
@@ -1919,12 +1940,14 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="Y4" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
@@ -1936,17 +1959,17 @@
       </c>
       <c r="C5" s="3">
         <f>C3+Table1[[#This Row],[Cost]]</f>
-        <v>220</v>
+        <v>310</v>
       </c>
       <c r="D5" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>315</v>
+        <v>135</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>213</v>
       </c>
       <c r="F5" s="19">
-        <v>0.98412698412698407</v>
+        <v>2.31</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>1</v>
@@ -1961,7 +1984,8 @@
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>70</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>16</v>
@@ -2006,185 +2030,185 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B6" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <f>C5+Table1[[#This Row],[Cost]]</f>
-        <v>450</v>
+        <f>C2+Table1[[#This Row],[Cost]]</f>
+        <v>175</v>
       </c>
       <c r="D6" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>560</v>
-      </c>
-      <c r="E6" s="26">
-        <v>4</v>
+        <v>76.5</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="F6" s="19">
-        <v>0.6964285714285714</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>73</v>
+        <v>2.31</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" s="1">
-        <v>70</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>51</v>
       </c>
       <c r="L6" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M6" s="3">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="P6" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q6" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R6" s="5">
+        <v>44</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="V6" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="W6" s="4"/>
-      <c r="X6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>193</v>
-      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B7" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <f>C5+Table1[[#This Row],[Cost]]</f>
-        <v>335</v>
+        <f>C6+Table1[[#This Row],[Cost]]</f>
+        <v>355</v>
       </c>
       <c r="D7" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>138</v>
+        <v>153.33333333333331</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F7" s="19">
-        <v>1.1956521739130435</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>122</v>
+        <v>2.31</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" s="1">
-        <v>92</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>115</v>
       </c>
       <c r="L7" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M7" s="3">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Q7">
-        <v>20</v>
-      </c>
-      <c r="R7">
-        <v>6</v>
+      <c r="Q7" s="5">
+        <v>30</v>
+      </c>
+      <c r="R7" s="5">
+        <v>13</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="T7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>128</v>
-      </c>
+      <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B8" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
-        <f>C3+Table1[[#This Row],[Cost]]</f>
-        <v>175</v>
+        <f>C6+Table1[[#This Row],[Cost]]</f>
+        <v>365</v>
       </c>
       <c r="D8" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>126</v>
-      </c>
-      <c r="E8" s="26">
-        <v>2</v>
+        <v>157.5</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="F8" s="19">
-        <v>1.5873015873015872</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>103</v>
+        <v>2.31</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>6</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2196,191 +2220,192 @@
         <v>1</v>
       </c>
       <c r="K8" s="1">
-        <v>21</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>105</v>
       </c>
       <c r="L8" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M8" s="3">
-        <v>135</v>
+        <v>190</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q8" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R8" s="5">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="T8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="4" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="e">
+      <c r="C9" s="3">
         <f>C2+Table1[[#This Row],[Cost]]</f>
-        <v>#REF!</v>
+        <v>120</v>
       </c>
       <c r="D9" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>106.66666666666666</v>
+        <v>52.8</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F9" s="19">
-        <v>1.6875000000000002</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>39</v>
+        <v>2.31</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" s="1">
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>22</v>
+      </c>
+      <c r="L9" s="2">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3">
         <v>80</v>
       </c>
-      <c r="L9" s="2">
-        <v>18</v>
-      </c>
-      <c r="M9" s="3">
-        <v>150</v>
-      </c>
       <c r="N9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="Q9" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R9" s="5">
+        <v>57</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V9" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="4" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" s="17">
         <v>3</v>
       </c>
-      <c r="C10" s="3" t="e">
+      <c r="C10" s="3">
         <f>C9+Table1[[#This Row],[Cost]]</f>
-        <v>#REF!</v>
+        <v>360</v>
       </c>
       <c r="D10" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>225</v>
+        <v>156</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F10" s="19">
-        <v>1.4888888888888889</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>36</v>
+        <v>2.31</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>150</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>104</v>
       </c>
       <c r="L10" s="2">
         <v>16</v>
       </c>
       <c r="M10" s="3">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="Q10" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="R10" s="5">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="S10" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T10" s="4" t="s">
         <v>56</v>
@@ -2390,74 +2415,75 @@
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="4" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B11" s="17">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="e">
-        <f>C10+Table1[[#This Row],[Cost]]</f>
-        <v>#REF!</v>
+      <c r="C11" s="3">
+        <f>C9+Table1[[#This Row],[Cost]]</f>
+        <v>320</v>
       </c>
       <c r="D11" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>276</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>212</v>
+        <v>137.14285714285714</v>
+      </c>
+      <c r="E11" s="26">
+        <v>4</v>
       </c>
       <c r="F11" s="19">
-        <v>1.4107142857142858</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>75</v>
+        <v>2.31</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I11">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" s="1">
-        <v>46</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>40</v>
       </c>
       <c r="L11" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M11" s="3">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q11" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R11" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S11" s="4" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="T11" s="4" t="s">
         <v>56</v>
@@ -2467,232 +2493,239 @@
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="4" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4" t="s">
-        <v>105</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B12" s="17">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="e">
-        <f>Table1[[#This Row],[Cost]]+C11</f>
-        <v>#REF!</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>30</v>
       </c>
       <c r="D12" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>104</v>
-      </c>
-      <c r="E12" s="26">
-        <v>3</v>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="F12" s="19">
-        <v>1.8</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>45</v>
+        <v>1.47</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>50</v>
-      </c>
-      <c r="I12">
-        <v>106</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" s="1">
-        <v>52</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>17</v>
       </c>
       <c r="L12" s="2">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M12" s="3">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="Q12" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R12" s="5">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="S12" s="4" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="T12" s="4" t="s">
         <v>56</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B13" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <f>Table1[[#This Row],[Cost]]</f>
-        <v>50</v>
+        <f>C12+Table1[[#This Row],[Cost]]</f>
+        <v>130</v>
       </c>
       <c r="D13" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>28</v>
+        <v>88.5</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F13" s="19">
-        <v>1.7857142857142858</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>120</v>
+        <v>1.47</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" s="1">
-        <v>14</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>59</v>
       </c>
       <c r="L13" s="2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M13" s="3">
+        <v>100</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="5">
         <v>50</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q13">
-        <v>20</v>
-      </c>
       <c r="R13" s="5">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="T13" s="4" t="s">
         <v>56</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="W13" s="4" t="s">
-        <v>124</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="Y13" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4" t="s">
-        <v>142</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B14" s="17">
         <v>3</v>
       </c>
       <c r="C14" s="3">
         <f>C13+Table1[[#This Row],[Cost]]</f>
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="D14" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>146.66666666666666</v>
+        <v>204</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F14" s="19">
-        <v>2.4204545454545454</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>5</v>
+        <v>1.47</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" s="1">
-        <v>110</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>102</v>
       </c>
       <c r="L14" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M14" s="3">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R14" s="5">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T14" s="4" t="s">
         <v>56</v>
@@ -2702,74 +2735,77 @@
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Z14" s="4"/>
+        <v>224</v>
+      </c>
+      <c r="Z14" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="AA14" s="4"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B15" s="17">
         <v>3</v>
       </c>
       <c r="C15" s="3">
         <f>C13+Table1[[#This Row],[Cost]]</f>
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="D15" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>133.71428571428569</v>
+        <v>238.58823529411765</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F15" s="19">
-        <v>3</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>125</v>
+        <v>1.47</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" s="1">
-        <v>78</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>169</v>
       </c>
       <c r="L15" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M15" s="3">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="N15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q15">
-        <v>20</v>
-      </c>
-      <c r="R15">
-        <v>14</v>
+        <v>182</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>50</v>
+      </c>
+      <c r="R15" s="5">
+        <v>37</v>
       </c>
       <c r="S15" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="T15" s="4" t="s">
         <v>56</v>
@@ -2779,198 +2815,198 @@
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4" t="s">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B16" s="17">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="e">
+      <c r="C16" s="3">
         <f>C12+Table1[[#This Row],[Cost]]</f>
-        <v>#REF!</v>
+        <v>145</v>
       </c>
       <c r="D16" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>84</v>
+        <v>98.666666666666657</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F16" s="19">
-        <v>1.7222222222222223</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>60</v>
+        <v>1.47</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16" s="1">
-        <v>14</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>74</v>
       </c>
       <c r="L16" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="M16" s="3">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="5">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="R16" s="5">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>56</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="Y16" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <f>Table1[[#This Row],[Cost]]</f>
-        <v>50</v>
+        <f>C16+Table1[[#This Row],[Cost]]</f>
+        <v>335</v>
       </c>
       <c r="D17" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>24</v>
+        <v>228</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F17" s="19">
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>58</v>
+        <v>1.47</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="1">
-        <v>4</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>152</v>
       </c>
       <c r="L17" s="2">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M17" s="3">
+        <v>190</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q17" s="5">
         <v>50</v>
       </c>
-      <c r="N17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>12</v>
-      </c>
       <c r="R17" s="5">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="T17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="Y17" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B18" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3">
-        <f>C13+Table1[[#This Row],[Cost]]</f>
-        <v>170</v>
+        <f>C16+Table1[[#This Row],[Cost]]</f>
+        <v>355</v>
       </c>
       <c r="D18" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>240</v>
-      </c>
-      <c r="E18" s="26">
-        <v>4</v>
+        <v>241.33333333333331</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="F18" s="19">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>44</v>
+        <v>1.47</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2982,78 +3018,73 @@
         <v>1</v>
       </c>
       <c r="K18" s="1">
-        <v>30</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>181</v>
       </c>
       <c r="L18" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M18" s="3">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>227</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>230</v>
+        <v>182</v>
       </c>
       <c r="Q18" s="5">
         <v>50</v>
       </c>
       <c r="R18" s="5">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="V18" s="4" t="s">
-        <v>72</v>
-      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="X18" s="4"/>
       <c r="Y18" s="4" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
-        <f>C18+Table1[[#This Row],[Cost]]</f>
-        <v>510</v>
+        <f>C12+Table1[[#This Row],[Cost]]</f>
+        <v>180</v>
       </c>
       <c r="D19" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>240</v>
+        <v>122.66666666666666</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F19" s="19">
-        <v>2.4166666666666665</v>
+        <v>1.47</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -3065,13 +3096,14 @@
         <v>1</v>
       </c>
       <c r="K19" s="1">
-        <v>180</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>92</v>
       </c>
       <c r="L19" s="2">
         <v>18</v>
       </c>
       <c r="M19" s="3">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="N19" s="4" t="s">
         <v>24</v>
@@ -3086,7 +3118,7 @@
         <v>50</v>
       </c>
       <c r="R19" s="5">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S19" s="4" t="s">
         <v>46</v>
@@ -3094,371 +3126,378 @@
       <c r="T19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="U19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B20" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3">
-        <f>C17+Table1[[#This Row],[Cost]]</f>
-        <v>190</v>
+        <f>C19+Table1[[#This Row],[Cost]]</f>
+        <v>520</v>
       </c>
       <c r="D20" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>135</v>
+        <v>353.33333333333331</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F20" s="19">
-        <v>1.4074074074074074</v>
-      </c>
-      <c r="G20" s="25" t="s">
-        <v>124</v>
+        <v>1.47</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>90</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>265</v>
       </c>
       <c r="L20" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M20" s="3">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
+        <v>182</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>50</v>
       </c>
       <c r="R20" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="T20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U20" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
+      <c r="Y20" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4" t="s">
-        <v>257</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="B21" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
-        <f>C18+Table1[[#This Row],[Cost]]</f>
-        <v>260</v>
+        <f>C19+Table1[[#This Row],[Cost]]</f>
+        <v>460</v>
       </c>
       <c r="D21" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>96</v>
+        <v>313.5</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F21" s="19">
-        <v>1.5625</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>20</v>
+        <v>1.47</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>106</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" s="1">
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>209</v>
+      </c>
+      <c r="L21" s="2">
         <v>16</v>
       </c>
-      <c r="L21" s="2">
-        <v>4</v>
-      </c>
       <c r="M21" s="3">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="Q21" s="5">
-        <v>106</v>
-      </c>
-      <c r="R21" s="5">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="R21">
+        <v>54</v>
       </c>
       <c r="S21" s="4" t="s">
-        <v>228</v>
+        <v>46</v>
       </c>
       <c r="T21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U21" s="4" t="s">
-        <v>96</v>
-      </c>
+      <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="Y21" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:29" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B22" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
-        <f>C21+Table1[[#This Row],[Cost]]</f>
-        <v>500</v>
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>50</v>
       </c>
       <c r="D22" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>172.79999999999998</v>
+        <v>24</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F22" s="19">
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>99</v>
+        <v>2.08</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>72</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>4</v>
       </c>
       <c r="L22" s="2">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="M22" s="3">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q22" s="5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="R22" s="5">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="X22" s="4"/>
-      <c r="Y22" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B23" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="3">
-        <f>C21+Table1[[#This Row],[Cost]]</f>
-        <v>450</v>
+        <f>C22+Table1[[#This Row],[Cost]]</f>
+        <v>170</v>
       </c>
       <c r="D23" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>180</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" s="19">
-        <v>2.0277777777777777</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>6</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>3</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="2">
+        <v>24</v>
+      </c>
+      <c r="M23" s="3">
         <v>120</v>
       </c>
-      <c r="L23" s="2">
-        <v>16</v>
-      </c>
-      <c r="M23" s="3">
-        <v>190</v>
-      </c>
       <c r="N23" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P23" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q23" s="5">
-        <v>30</v>
-      </c>
-      <c r="R23" s="5">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="R23">
+        <v>46</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="T23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="U23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
+      <c r="X23" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="Y23" s="4" t="s">
-        <v>252</v>
+        <v>198</v>
       </c>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24" s="17">
         <v>3</v>
       </c>
       <c r="C24" s="3">
         <f>C23+Table1[[#This Row],[Cost]]</f>
-        <v>730</v>
+        <v>380</v>
       </c>
       <c r="D24" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>316</v>
+        <v>0</v>
       </c>
       <c r="E24" s="26">
         <v>3</v>
       </c>
-      <c r="F24" s="19">
-        <v>1.484375</v>
-      </c>
+      <c r="F24" s="19"/>
       <c r="G24" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H24">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1">
-        <v>158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1"/>
       <c r="L24" s="2">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M24" s="3">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="N24" s="4" t="s">
         <v>14</v>
@@ -3470,90 +3509,88 @@
         <v>230</v>
       </c>
       <c r="Q24" s="5">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="R24" s="5">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="S24" s="4" t="s">
         <v>56</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
+      <c r="X24" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="Y24" s="4" t="s">
-        <v>113</v>
+        <v>200</v>
       </c>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B25" s="17">
         <v>3</v>
       </c>
       <c r="C25" s="3">
-        <f>C24+Table1[[#This Row],[Cost]]</f>
-        <v>970</v>
+        <f>C23+Table1[[#This Row],[Cost]]</f>
+        <v>410</v>
       </c>
       <c r="D25" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>247.5</v>
+        <v>0</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="F25" s="19">
-        <v>1.4545454545454546</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1">
-        <v>165</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1"/>
       <c r="L25" s="2">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M25" s="3">
         <v>240</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P25" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q25" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R25" s="5">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="T25" s="4" t="s">
         <v>56</v>
@@ -3561,299 +3598,293 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
+      <c r="X25" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="Y25" s="4" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <f>C25+Table1[[#This Row],[Cost]]</f>
-        <v>1190</v>
+        <f>C22+Table1[[#This Row],[Cost]]</f>
+        <v>150</v>
       </c>
       <c r="D26" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>221.53846153846155</v>
-      </c>
-      <c r="E26" s="26">
-        <v>3</v>
+        <v>72</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="F26" s="19">
-        <v>1.8055555555555556</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>100</v>
+        <v>2.08</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="H26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26" s="1">
-        <v>80</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>12</v>
       </c>
       <c r="L26" s="2">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="M26" s="3">
-        <v>220</v>
+        <v>100</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P26" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q26" s="5">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="R26" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="4" t="s">
-        <v>219</v>
-      </c>
+      <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B27" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <f>Table1[[#This Row],[Cost]]</f>
-        <v>40</v>
+        <f>C26+Table1[[#This Row],[Cost]]</f>
+        <v>390</v>
       </c>
       <c r="D27" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>19.200000000000003</v>
-      </c>
-      <c r="E27" s="26">
-        <v>2</v>
+        <v>192</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="F27" s="19">
-        <v>2.083333333333333</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>59</v>
+        <v>2.08</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K27" s="1">
-        <v>12</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>16</v>
       </c>
       <c r="L27" s="2">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="M27" s="3">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q27" s="5">
-        <v>24</v>
-      </c>
-      <c r="R27">
-        <v>26</v>
+        <v>12</v>
+      </c>
+      <c r="R27" s="5">
+        <v>53</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="U27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W27" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B28" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <f>C25+Table1[[#This Row],[Cost]]</f>
-        <v>1050</v>
+        <f>C26+Table1[[#This Row],[Cost]]</f>
+        <v>430</v>
       </c>
       <c r="D28" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>57.818181818181813</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>212</v>
+        <v>204</v>
+      </c>
+      <c r="E28" s="26">
+        <v>1</v>
       </c>
       <c r="F28" s="19">
-        <v>2.0754716981132075</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>62</v>
+        <v>2.08</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I28">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" s="1">
-        <v>53</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>34</v>
       </c>
       <c r="L28" s="2">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M28" s="3">
-        <v>80</v>
+        <v>280</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P28" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q28" s="5">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="R28" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="U28" s="4" t="s">
-        <v>99</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
-      <c r="Y28" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z28" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="3">
-        <f>C27+Table1[[#This Row],[Cost]]</f>
-        <v>320</v>
+        <f>C22+Table1[[#This Row],[Cost]]</f>
+        <v>190</v>
       </c>
       <c r="D29" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>234</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>212</v>
+        <v>92.25</v>
+      </c>
+      <c r="E29" s="26">
+        <v>3</v>
       </c>
       <c r="F29" s="19">
-        <v>1.8125</v>
+        <v>2.08</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="I29">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>39</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>41</v>
       </c>
       <c r="L29" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="M29" s="3">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>14</v>
@@ -3868,52 +3899,58 @@
         <v>12</v>
       </c>
       <c r="R29" s="5">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="Y29" s="4" t="s">
+        <v>112</v>
+      </c>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="17">
         <v>3</v>
       </c>
-      <c r="C30" s="24">
-        <f>C28+Table1[[#This Row],[Cost]]</f>
-        <v>1330</v>
+      <c r="C30" s="3">
+        <f>C29+Table1[[#This Row],[Cost]]</f>
+        <v>470</v>
       </c>
       <c r="D30" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>355.5</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>212</v>
+        <v>226</v>
+      </c>
+      <c r="E30" s="26">
+        <v>3</v>
       </c>
       <c r="F30" s="19">
-        <v>1.484375</v>
+        <v>2.08</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I30">
         <v>106</v>
@@ -3922,10 +3959,11 @@
         <v>1</v>
       </c>
       <c r="K30" s="1">
-        <v>474</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>113</v>
       </c>
       <c r="L30" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M30" s="3">
         <v>280</v>
@@ -3943,7 +3981,7 @@
         <v>12</v>
       </c>
       <c r="R30" s="5">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>56</v>
@@ -3955,357 +3993,357 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
+      <c r="Y30" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4" t="s">
-        <v>206</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B31" s="17">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3">
-        <f>C27+Table1[[#This Row],[Cost]]</f>
-        <v>155</v>
+        <v>3</v>
+      </c>
+      <c r="C31" s="24">
+        <f>C29+Table1[[#This Row],[Cost]]</f>
+        <v>470</v>
       </c>
       <c r="D31" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>93.333333333333329</v>
+        <v>225.75</v>
       </c>
       <c r="E31" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F31" s="19">
-        <v>1.5535714285714286</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>37</v>
+        <v>2.08</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="H31">
         <v>0</v>
       </c>
       <c r="I31">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" s="1">
-        <v>70</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>301</v>
       </c>
       <c r="L31" s="2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M31" s="3">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="5">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="R31" s="5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U31" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="V31" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
-      <c r="Y31" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B32" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="3">
-        <f>C29+Table1[[#This Row],[Cost]]</f>
-        <v>440</v>
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>40</v>
       </c>
       <c r="D32" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>102</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>212</v>
+        <v>19.200000000000003</v>
+      </c>
+      <c r="E32" s="26">
+        <v>2</v>
       </c>
       <c r="F32" s="19">
-        <v>1.7788461538461537</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>19</v>
+        <v>2.08</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I32">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" s="1">
-        <v>17</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>12</v>
       </c>
       <c r="L32" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M32" s="3">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O32" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P32" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q32" s="5">
-        <v>20</v>
-      </c>
-      <c r="R32" s="5">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="R32">
+        <v>26</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="U32" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B33" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="3">
-        <f>Table1[[#This Row],[Cost]]</f>
-        <v>65</v>
+        <f>C32+Table1[[#This Row],[Cost]]</f>
+        <v>180</v>
       </c>
       <c r="D33" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>27</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>212</v>
+        <v>86.4</v>
+      </c>
+      <c r="E33" s="26">
+        <v>3</v>
       </c>
       <c r="F33" s="19">
-        <v>2.2159090909090908</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>26</v>
+        <v>2.08</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>78</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I33">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>9</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>36</v>
       </c>
       <c r="L33" s="2">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="M33" s="3">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q33" s="5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R33" s="5">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="U33" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
       <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
+      <c r="Y33" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B34" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3">
         <f>C33+Table1[[#This Row],[Cost]]</f>
-        <v>165</v>
+        <v>400</v>
       </c>
       <c r="D34" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
+        <v>191.07692307692309</v>
+      </c>
+      <c r="E34" s="26">
+        <v>3</v>
+      </c>
+      <c r="F34" s="19">
+        <v>2.08</v>
+      </c>
+      <c r="G34" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="F34" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>121</v>
-      </c>
       <c r="H34">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I34">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" s="1">
-        <v>50</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>69</v>
       </c>
       <c r="L34" s="2">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M34" s="3">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P34" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Q34">
-        <v>20</v>
+      <c r="Q34" s="5">
+        <v>28</v>
       </c>
       <c r="R34" s="5">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="S34" s="4" t="s">
         <v>56</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U34" s="4" t="s">
-        <v>141</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B35" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" s="3">
-        <f>C34+Table1[[#This Row],[Cost]]</f>
-        <v>345</v>
+        <f>C32+Table1[[#This Row],[Cost]]</f>
+        <v>120</v>
       </c>
       <c r="D35" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>264</v>
+        <v>57.818181818181813</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F35" s="19">
-        <v>1.25</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>77</v>
+        <v>2.08</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -4317,173 +4355,182 @@
         <v>1</v>
       </c>
       <c r="K35" s="1">
-        <v>44</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>53</v>
       </c>
       <c r="L35" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M35" s="3">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q35" s="5">
-        <v>106</v>
-      </c>
-      <c r="R35">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="R35" s="5">
+        <v>27</v>
       </c>
       <c r="S35" s="4" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="T35" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="U35" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
+      <c r="Y35" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z35" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="AA35" s="4"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B36" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="3">
-        <f>C29+Table1[[#This Row],[Cost]]</f>
-        <v>460</v>
+        <f>C35+Table1[[#This Row],[Cost]]</f>
+        <v>360</v>
       </c>
       <c r="D36" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>119.25</v>
-      </c>
-      <c r="E36" s="26">
-        <v>3</v>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>215</v>
       </c>
       <c r="F36" s="19">
-        <v>1.5757575757575757</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>43</v>
+        <v>2.08</v>
+      </c>
+      <c r="G36" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="H36">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>106</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="1">
-        <v>53</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>72</v>
       </c>
       <c r="L36" s="2">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="M36" s="3">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P36" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q36" s="5">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="R36" s="5">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="S36" s="4" t="s">
         <v>56</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="U36" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="V36" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4"/>
       <c r="Y36" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z36" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="AA36" s="4"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4" t="s">
-        <v>51</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B37" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="3">
-        <f>C36+Table1[[#This Row],[Cost]]</f>
-        <v>670</v>
+        <f>C32+Table1[[#This Row],[Cost]]</f>
+        <v>160</v>
       </c>
       <c r="D37" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E37" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" s="19">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>65</v>
+        <v>2.08</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="1">
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>10</v>
+      </c>
       <c r="L37" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M37" s="3">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="P37" s="4" t="s">
         <v>230</v>
@@ -4492,7 +4539,7 @@
         <v>50</v>
       </c>
       <c r="R37" s="5">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="S37" s="4" t="s">
         <v>56</v>
@@ -4500,45 +4547,49 @@
       <c r="T37" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
+      <c r="U37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="V37" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="s">
         <v>83</v>
       </c>
       <c r="Y37" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B38" s="17">
         <v>3</v>
       </c>
       <c r="C38" s="3">
-        <f>C36+Table1[[#This Row],[Cost]]</f>
-        <v>680</v>
+        <f>C37+Table1[[#This Row],[Cost]]</f>
+        <v>390</v>
       </c>
       <c r="D38" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>268.23529411764707</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>212</v>
+        <v>184</v>
+      </c>
+      <c r="E38" s="26">
+        <v>4</v>
       </c>
       <c r="F38" s="19">
-        <v>1.3048245614035088</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>63</v>
+        <v>2.08</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4550,31 +4601,32 @@
         <v>1</v>
       </c>
       <c r="K38" s="1">
-        <v>190</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>23</v>
       </c>
       <c r="L38" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M38" s="3">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>227</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="5">
         <v>50</v>
       </c>
       <c r="R38" s="5">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T38" s="4" t="s">
         <v>56</v>
@@ -4582,76 +4634,79 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
+      <c r="X38" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="Y38" s="4" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4" t="s">
-        <v>240</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
       </c>
       <c r="C39" s="3">
-        <f>C38+Table1[[#This Row],[Cost]]</f>
-        <v>920</v>
+        <f>C37+Table1[[#This Row],[Cost]]</f>
+        <v>420</v>
       </c>
       <c r="D39" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>375</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>214</v>
+        <v>200</v>
+      </c>
+      <c r="E39" s="26">
+        <v>3</v>
       </c>
       <c r="F39" s="19">
-        <v>1.0533333333333332</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>74</v>
+        <v>2.08</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I39">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="J39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>25</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>50</v>
       </c>
       <c r="L39" s="2">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M39" s="3">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q39" s="5">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="R39" s="5">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="S39" s="4" t="s">
-        <v>225</v>
+        <v>56</v>
       </c>
       <c r="T39" s="4" t="s">
         <v>56</v>
@@ -4660,236 +4715,239 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
+      <c r="Y39" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="B40" s="17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" s="3">
-        <f>C35+Table1[[#This Row],[Cost]]</f>
-        <v>635</v>
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>60</v>
       </c>
       <c r="D40" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>196.36363636363635</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>164</v>
+        <v>29.714285714285712</v>
+      </c>
+      <c r="E40" s="26">
+        <v>2</v>
       </c>
       <c r="F40" s="19">
-        <v>2.2229166666666669</v>
-      </c>
-      <c r="G40" s="25" t="s">
-        <v>139</v>
+        <v>2.02</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I40">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="J40">
         <v>1</v>
       </c>
       <c r="K40" s="1">
-        <v>45</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>26</v>
       </c>
       <c r="L40" s="2">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="M40" s="3">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="P40" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="5">
+        <v>30</v>
+      </c>
+      <c r="R40" s="5">
         <v>50</v>
       </c>
-      <c r="R40" s="5">
-        <v>39</v>
-      </c>
       <c r="S40" s="4" t="s">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="T40" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U40" s="4"/>
-      <c r="V40" s="4"/>
+      <c r="U40" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="W40" s="4"/>
-      <c r="X40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B41" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="3">
-        <f>C40+Table1[[#This Row],[Cost]]</f>
-        <v>915</v>
+        <f>Table1[[#This Row],[Cost]]+C40</f>
+        <v>190</v>
       </c>
       <c r="D41" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>360</v>
+        <v>94</v>
       </c>
       <c r="E41" s="26">
         <v>3</v>
       </c>
       <c r="F41" s="19">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="G41" s="16" t="s">
-        <v>104</v>
+        <v>2.02</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I41">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="J41">
         <v>1</v>
       </c>
       <c r="K41" s="1">
-        <v>40</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>47</v>
       </c>
       <c r="L41" s="2">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="M41" s="3">
-        <v>280</v>
+        <v>130</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P41" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q41" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R41" s="5">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="S41" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T41" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U41" s="4"/>
+      <c r="U41" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
-      <c r="Y41" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4" t="s">
-        <v>172</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="3">
         <f>C41+Table1[[#This Row],[Cost]]</f>
-        <v>1005</v>
+        <v>440</v>
       </c>
       <c r="D42" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>108</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>213</v>
+        <v>218.76923076923077</v>
+      </c>
+      <c r="E42" s="26">
+        <v>3</v>
       </c>
       <c r="F42" s="19">
-        <v>1.4351851851851851</v>
-      </c>
-      <c r="G42" s="16" t="s">
-        <v>27</v>
+        <v>2.02</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I42">
         <v>122</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K42" s="1">
-        <v>12</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>79</v>
       </c>
       <c r="L42" s="2">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M42" s="3">
-        <v>90</v>
+        <v>250</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P42" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q42" s="5">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R42" s="5">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T42" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U42" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
@@ -4898,214 +4956,211 @@
       <c r="AA42" s="4"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B43" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="3">
-        <f>C41+Table1[[#This Row],[Cost]]</f>
-        <v>1125</v>
+        <f>C40+Table1[[#This Row],[Cost]]</f>
+        <v>150</v>
       </c>
       <c r="D43" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="E43" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F43" s="19">
-        <v>1.925</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>38</v>
+        <v>2.02</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
       <c r="I43">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="J43">
         <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>150</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>12</v>
       </c>
       <c r="L43" s="2">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M43" s="3">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="Q43" s="5">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="R43" s="5">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="S43" s="4" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="T43" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U43" s="4"/>
+      <c r="U43" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4"/>
-      <c r="Y43" s="4" t="s">
-        <v>244</v>
-      </c>
+      <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B44" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3">
         <f>C43+Table1[[#This Row],[Cost]]</f>
-        <v>1215</v>
+        <v>330</v>
       </c>
       <c r="D44" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>62.117647058823536</v>
+        <v>162</v>
       </c>
       <c r="E44" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F44" s="19">
-        <v>2.0928030303030303</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>0</v>
+        <v>2.02</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="I44">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="J44">
         <v>1</v>
       </c>
       <c r="K44" s="1">
-        <v>44</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>27</v>
       </c>
       <c r="L44" s="2">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="M44" s="3">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="N44" s="4" t="s">
         <v>23</v>
       </c>
       <c r="O44" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q44" s="5">
-        <v>30</v>
-      </c>
-      <c r="R44" s="5">
-        <v>43</v>
+        <v>106</v>
+      </c>
+      <c r="R44">
+        <v>34</v>
       </c>
       <c r="S44" s="4" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="T44" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V44" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
-      <c r="Y44" s="4" t="s">
-        <v>159</v>
-      </c>
+      <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B45" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C45" s="3">
-        <f>C41+Table1[[#This Row],[Cost]]</f>
-        <v>1050</v>
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>65</v>
       </c>
       <c r="D45" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="E45" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F45" s="19">
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>2</v>
+        <v>2.41</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
       <c r="I45">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J45">
         <v>1</v>
       </c>
       <c r="K45" s="1">
-        <v>60</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>9</v>
       </c>
       <c r="L45" s="2">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M45" s="3">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="N45" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>230</v>
@@ -5114,639 +5169,641 @@
         <v>20</v>
       </c>
       <c r="R45" s="5">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="S45" s="4" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="T45" s="4" t="s">
         <v>56</v>
       </c>
       <c r="U45" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="V45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="W45" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4" t="s">
-        <v>158</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B46" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C46" s="3">
         <f>C45+Table1[[#This Row],[Cost]]</f>
-        <v>1220</v>
+        <v>155</v>
       </c>
       <c r="D46" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>310</v>
+        <v>63</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F46" s="19">
-        <v>0.967741935483871</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>35</v>
+        <v>2.41</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>27</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
       <c r="I46">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K46" s="1">
-        <v>155</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>7</v>
       </c>
       <c r="L46" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="M46" s="3">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O46" s="4" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="Q46" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R46" s="5">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S46" s="4" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="T46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U46" s="4"/>
+      <c r="U46" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4"/>
-      <c r="Y46" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z46" s="4" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4" t="s">
-        <v>239</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="B47" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47" s="3">
         <f>C46+Table1[[#This Row],[Cost]]</f>
-        <v>1340</v>
+        <v>395</v>
       </c>
       <c r="D47" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="26">
-        <v>3</v>
+        <v>165</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>214</v>
       </c>
       <c r="F47" s="19">
-        <v>0</v>
-      </c>
-      <c r="G47" s="13" t="s">
-        <v>42</v>
+        <v>2.41</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="K47" s="1">
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>11</v>
+      </c>
       <c r="L47" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M47" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="N47" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P47" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q47" s="5">
-        <v>50</v>
-      </c>
-      <c r="R47">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="R47" s="5">
+        <v>38</v>
       </c>
       <c r="S47" s="4" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="T47" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U47" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V47" s="4" t="s">
-        <v>202</v>
-      </c>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-      <c r="X47" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y47" s="4" t="s">
-        <v>198</v>
-      </c>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B48" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C48" s="3">
-        <f>C47+Table1[[#This Row],[Cost]]</f>
-        <v>1520</v>
+        <f>C45+Table1[[#This Row],[Cost]]</f>
+        <v>185</v>
       </c>
       <c r="D48" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="E48" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F48" s="19">
-        <v>1.1481481481481481</v>
-      </c>
-      <c r="G48" s="11" t="s">
-        <v>4</v>
+        <v>2.41</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" s="1">
-        <v>180</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>13</v>
       </c>
       <c r="L48" s="2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M48" s="3">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P48" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q48" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R48" s="5">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="S48" s="4" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="T48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U48" s="4"/>
+      <c r="U48" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
       <c r="Y48" s="4" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B49" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C49" s="3">
         <f>C48+Table1[[#This Row],[Cost]]</f>
-        <v>1660</v>
+        <v>395</v>
       </c>
       <c r="D49" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>60</v>
-      </c>
-      <c r="E49" s="26">
-        <v>3</v>
+        <v>162</v>
+      </c>
+      <c r="E49" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="F49" s="19">
-        <v>2.9605263157894735</v>
-      </c>
-      <c r="G49" s="14" t="s">
-        <v>78</v>
+        <v>2.41</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>75</v>
       </c>
       <c r="H49">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="J49">
         <v>1</v>
       </c>
       <c r="K49" s="1">
-        <v>25</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>27</v>
       </c>
       <c r="L49" s="2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M49" s="3">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O49" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P49" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q49" s="5">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="R49" s="5">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="S49" s="4" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="T49" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="U49" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4"/>
       <c r="Y49" s="4" t="s">
-        <v>114</v>
+        <v>209</v>
       </c>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B50" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" s="3">
-        <f>C48+Table1[[#This Row],[Cost]]</f>
-        <v>1760</v>
+        <f>C45+Table1[[#This Row],[Cost]]</f>
+        <v>200</v>
       </c>
       <c r="D50" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>0</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>213</v>
+        <v>84</v>
+      </c>
+      <c r="E50" s="26">
+        <v>2</v>
       </c>
       <c r="F50" s="19">
-        <v>0</v>
-      </c>
-      <c r="G50" s="13" t="s">
-        <v>68</v>
+        <v>2.41</v>
+      </c>
+      <c r="G50" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="H50">
         <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>14</v>
+      </c>
       <c r="L50" s="2">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M50" s="3">
-        <v>240</v>
+        <v>135</v>
       </c>
       <c r="N50" s="4" t="s">
         <v>14</v>
       </c>
       <c r="O50" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P50" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q50" s="5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R50" s="5">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="S50" s="4" t="s">
-        <v>56</v>
+        <v>225</v>
       </c>
       <c r="T50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U50" s="4"/>
+      <c r="U50" s="4" t="s">
+        <v>104</v>
+      </c>
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
-      <c r="X50" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="X50" s="4"/>
       <c r="Y50" s="4" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B51" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C51" s="3">
-        <f>Table1[[#This Row],[Cost]]</f>
-        <v>60</v>
+        <f>C50+Table1[[#This Row],[Cost]]</f>
+        <v>480</v>
       </c>
       <c r="D51" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>29.714285714285712</v>
+        <v>198</v>
       </c>
       <c r="E51" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="19">
-        <v>2</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>18</v>
+        <v>2.41</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="H51">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="J51">
         <v>1</v>
       </c>
       <c r="K51" s="1">
-        <v>26</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>22</v>
       </c>
       <c r="L51" s="2">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="M51" s="3">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="O51" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P51" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q51" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="R51" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="S51" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="T51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U51" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="V51" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
+      <c r="Y51" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4" t="s">
-        <v>49</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B52" s="17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C52" s="3">
-        <f>C51+Table1[[#This Row],[Cost]]</f>
-        <v>160</v>
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>50</v>
       </c>
       <c r="D52" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E52" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F52" s="19">
-        <v>1.7333333333333334</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>34</v>
+        <v>1.79</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>120</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J52">
         <v>1</v>
       </c>
       <c r="K52" s="1">
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>14</v>
+      </c>
+      <c r="L52" s="2">
+        <v>12</v>
+      </c>
+      <c r="M52" s="3">
         <v>50</v>
       </c>
-      <c r="L52" s="2">
-        <v>16</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
-      </c>
       <c r="N52" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O52" s="4" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q52" s="5">
-        <v>50</v>
+        <v>230</v>
+      </c>
+      <c r="Q52">
+        <v>20</v>
       </c>
       <c r="R52" s="5">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="S52" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T52" s="4" t="s">
         <v>56</v>
       </c>
       <c r="U52" s="4" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="V52" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W52" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>124</v>
+      </c>
       <c r="X52" s="4"/>
-      <c r="Y52" s="4" t="s">
-        <v>223</v>
-      </c>
+      <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4" t="s">
-        <v>238</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B53" s="17">
-        <v>1</v>
-      </c>
-      <c r="C53" s="24">
-        <f>Table1[[#This Row],[Cost]]</f>
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C53" s="3">
+        <f>C52+Table1[[#This Row],[Cost]]</f>
+        <v>150</v>
       </c>
       <c r="D53" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>21.333333333333332</v>
+        <v>84</v>
       </c>
       <c r="E53" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F53" s="19">
-        <v>1.875</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>168</v>
+        <v>1.79</v>
+      </c>
+      <c r="G53" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="J53">
         <v>1</v>
       </c>
       <c r="K53" s="1">
-        <v>16</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>42</v>
       </c>
       <c r="L53" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="M53" s="3">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O53" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P53" s="4" t="s">
         <v>230</v>
       </c>
       <c r="Q53">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="R53" s="5">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="S53" s="4" t="s">
         <v>56</v>
@@ -5754,253 +5811,256 @@
       <c r="T53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U53" s="4"/>
+      <c r="U53" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4"/>
       <c r="Y53" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z53" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Z53" s="4"/>
       <c r="AA53" s="4"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B54" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C54" s="3">
-        <f>C53+Table1[[#This Row],[Cost]]</f>
-        <v>280</v>
+        <f>C52+Table1[[#This Row],[Cost]]</f>
+        <v>165</v>
       </c>
       <c r="D54" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>300</v>
+        <v>91.5</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F54" s="19">
-        <v>1.266025641025641</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>66</v>
+        <v>1.79</v>
+      </c>
+      <c r="G54" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="H54">
         <v>0</v>
       </c>
       <c r="I54">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K54" s="1">
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>61</v>
+      </c>
+      <c r="L54" s="2">
+        <v>16</v>
+      </c>
+      <c r="M54" s="3">
+        <v>115</v>
+      </c>
+      <c r="N54" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L54" s="2">
-        <v>6</v>
-      </c>
-      <c r="M54" s="3">
-        <v>240</v>
-      </c>
-      <c r="N54" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="O54" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P54" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Q54" s="5">
-        <v>12</v>
-      </c>
-      <c r="R54" s="5">
-        <v>53</v>
+      <c r="Q54">
+        <v>20</v>
+      </c>
+      <c r="R54">
+        <v>6</v>
       </c>
       <c r="S54" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U54" s="4"/>
+      <c r="U54" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
+      <c r="Y54" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B55" s="17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C55" s="3">
-        <f>C53+Table1[[#This Row],[Cost]]</f>
-        <v>320</v>
+        <f>C52+Table1[[#This Row],[Cost]]</f>
+        <v>190</v>
       </c>
       <c r="D55" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>270</v>
+        <v>106.5</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F55" s="19">
-        <v>1.7037037037037037</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>41</v>
+        <v>1.79</v>
+      </c>
+      <c r="G55" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="H55">
         <v>0</v>
       </c>
       <c r="I55">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55" s="1">
-        <v>180</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>71</v>
       </c>
       <c r="L55" s="2">
         <v>16</v>
       </c>
       <c r="M55" s="3">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>25</v>
       </c>
       <c r="O55" s="4" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q55" s="5">
-        <v>50</v>
-      </c>
-      <c r="R55">
-        <v>54</v>
+        <v>230</v>
+      </c>
+      <c r="Q55">
+        <v>20</v>
+      </c>
+      <c r="R55" s="5">
+        <v>19</v>
       </c>
       <c r="S55" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T55" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U55" s="4"/>
+      <c r="U55" s="4" t="s">
+        <v>127</v>
+      </c>
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4"/>
-      <c r="Y55" s="4" t="s">
-        <v>191</v>
-      </c>
+      <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B56" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C56" s="3">
-        <f>Table1[[#This Row],[Cost]]</f>
-        <v>30</v>
+        <f>C54+Table1[[#This Row],[Cost]]</f>
+        <v>405</v>
       </c>
       <c r="D56" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>20.399999999999999</v>
+        <v>226.28571428571428</v>
       </c>
       <c r="E56" s="26" t="s">
         <v>212</v>
       </c>
       <c r="F56" s="19">
-        <v>1.4705882352941178</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>57</v>
+        <v>1.79</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>125</v>
       </c>
       <c r="H56">
         <v>0</v>
       </c>
       <c r="I56">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="J56">
         <v>1</v>
       </c>
       <c r="K56" s="1">
-        <v>17</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>132</v>
       </c>
       <c r="L56" s="2">
+        <v>14</v>
+      </c>
+      <c r="M56" s="3">
+        <v>240</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q56">
         <v>20</v>
       </c>
-      <c r="M56" s="3">
-        <v>30</v>
-      </c>
-      <c r="N56" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O56" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="P56" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q56" s="5">
-        <v>50</v>
-      </c>
-      <c r="R56" s="5">
-        <v>55</v>
+      <c r="R56">
+        <v>14</v>
       </c>
       <c r="S56" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T56" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U56" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V56" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="W56" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
       <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
+      <c r="Y56" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -6012,17 +6072,17 @@
       </c>
       <c r="C57" s="3">
         <f>C55+Table1[[#This Row],[Cost]]</f>
-        <v>510</v>
+        <v>380</v>
       </c>
       <c r="D57" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="E57" s="26" t="s">
         <v>164</v>
       </c>
       <c r="F57" s="19">
-        <v>1.6481481481481481</v>
+        <v>1.79</v>
       </c>
       <c r="G57" s="25" t="s">
         <v>126</v>
@@ -6031,13 +6091,14 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J57">
         <v>1</v>
       </c>
       <c r="K57" s="1">
-        <v>38</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>35</v>
       </c>
       <c r="L57" s="2">
         <v>16</v>
@@ -6084,141 +6145,141 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="B58" s="17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="3">
-        <f>C51+Table1[[#This Row],[Cost]]</f>
-        <v>140</v>
+        <f>C53+Table1[[#This Row],[Cost]]</f>
+        <v>440</v>
       </c>
       <c r="D58" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>52.8</v>
+        <v>244.36363636363635</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="F58" s="19">
-        <v>2.2727272727272729</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>3</v>
+        <v>1.79</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="H58">
         <v>0</v>
       </c>
       <c r="I58">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K58" s="1">
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>56</v>
+      </c>
+      <c r="L58" s="2">
         <v>22</v>
       </c>
-      <c r="L58" s="2">
-        <v>20</v>
-      </c>
       <c r="M58" s="3">
-        <v>80</v>
+        <v>290</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O58" s="4" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="P58" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Q58" s="5">
-        <v>30</v>
+      <c r="Q58">
+        <v>50</v>
       </c>
       <c r="R58" s="5">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="S58" s="4" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="T58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="U58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="V58" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
       <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
+      <c r="X58" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="Y58" s="4" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B59" s="17">
-        <v>3</v>
-      </c>
-      <c r="C59" s="3">
-        <f>C57+Table1[[#This Row],[Cost]]</f>
-        <v>770</v>
+        <v>1</v>
+      </c>
+      <c r="C59" s="24">
+        <f>Table1[[#This Row],[Cost]]</f>
+        <v>40</v>
       </c>
       <c r="D59" s="21">
         <f>Table1[[#This Row],[maxHits]]*Table1[[#This Row],[Dmg]]*(24/Table1[[#This Row],[Atk Speed]])</f>
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="E59" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F59" s="19">
-        <v>1.05</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="H59">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59" s="1">
-        <v>100</v>
+        <f>ROUND((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>40</v>
       </c>
       <c r="L59" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M59" s="3">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="N59" s="4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="O59" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P59" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="Q59" s="5">
+      <c r="Q59">
         <v>50</v>
       </c>
       <c r="R59" s="5">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="S59" s="4" t="s">
         <v>56</v>
@@ -6231,13 +6292,15 @@
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z59" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="Z59" s="4" t="s">
+        <v>218</v>
+      </c>
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6422,4 +6485,476 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8066D48-5BFF-47E2-AB6F-1F60C82F1509}">
+  <dimension ref="A1:C58"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="27">
+        <v>13</v>
+      </c>
+      <c r="C1" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>44</v>
+      </c>
+      <c r="C2" s="27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>180</v>
+      </c>
+      <c r="C3" s="27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>70</v>
+      </c>
+      <c r="C4" s="27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>60</v>
+      </c>
+      <c r="C5" s="27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>110</v>
+      </c>
+      <c r="C6" s="27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>120</v>
+      </c>
+      <c r="C7" s="27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>22</v>
+      </c>
+      <c r="C8" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
+        <v>165</v>
+      </c>
+      <c r="C9" s="27">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>71</v>
+      </c>
+      <c r="C10" s="27">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>17</v>
+      </c>
+      <c r="C11" s="27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>50</v>
+      </c>
+      <c r="C12" s="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>155</v>
+      </c>
+      <c r="C13" s="27">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>190</v>
+      </c>
+      <c r="C14" s="27">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>70</v>
+      </c>
+      <c r="C15" s="27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="27">
+        <v>150</v>
+      </c>
+      <c r="C16" s="27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>150</v>
+      </c>
+      <c r="C17" s="27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>80</v>
+      </c>
+      <c r="C18" s="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>180</v>
+      </c>
+      <c r="C19" s="27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>180</v>
+      </c>
+      <c r="C20" s="27">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>4</v>
+      </c>
+      <c r="C21" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="C22" s="27"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="C23" s="27"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="C24" s="27"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>14</v>
+      </c>
+      <c r="C25" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>25</v>
+      </c>
+      <c r="C26" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>39</v>
+      </c>
+      <c r="C27" s="27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>53</v>
+      </c>
+      <c r="C28" s="27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>158</v>
+      </c>
+      <c r="C29" s="27">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>474</v>
+      </c>
+      <c r="C30" s="27">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>12</v>
+      </c>
+      <c r="C31" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>25</v>
+      </c>
+      <c r="C32" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>80</v>
+      </c>
+      <c r="C33" s="27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>53</v>
+      </c>
+      <c r="C34" s="27">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>72</v>
+      </c>
+      <c r="C35" s="27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>30</v>
+      </c>
+      <c r="C36" s="27">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>70</v>
+      </c>
+      <c r="C37" s="27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
+        <v>100</v>
+      </c>
+      <c r="C38" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>26</v>
+      </c>
+      <c r="C39" s="27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>52</v>
+      </c>
+      <c r="C40" s="27">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>152</v>
+      </c>
+      <c r="C41" s="27">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="27">
+        <v>16</v>
+      </c>
+      <c r="C42" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>44</v>
+      </c>
+      <c r="C43" s="27">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <v>9</v>
+      </c>
+      <c r="C44" s="27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>12</v>
+      </c>
+      <c r="C45" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <v>25</v>
+      </c>
+      <c r="C46" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>17</v>
+      </c>
+      <c r="C47" s="27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <v>46</v>
+      </c>
+      <c r="C48" s="27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>21</v>
+      </c>
+      <c r="C49" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <v>40</v>
+      </c>
+      <c r="C50" s="27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <v>14</v>
+      </c>
+      <c r="C51" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>50</v>
+      </c>
+      <c r="C52" s="27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
+        <v>92</v>
+      </c>
+      <c r="C53" s="27">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
+        <f>ROUNDDOWN((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>61</v>
+      </c>
+      <c r="C54" s="27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="27">
+        <f>ROUNDDOWN((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>70</v>
+      </c>
+      <c r="C55" s="27">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <f>ROUNDDOWN((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>131</v>
+      </c>
+      <c r="C56" s="27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
+        <f>ROUNDDOWN((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>35</v>
+      </c>
+      <c r="C57" s="27">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <f>ROUNDDOWN((Table1[[#This Row],[T.Cost]]/Table1[[#This Row],[Gold/MaxDPS]])/Table1[[#This Row],[maxHits]]/(24/Table1[[#This Row],[Atk Speed]]),0)</f>
+        <v>56</v>
+      </c>
+      <c r="C58" s="27">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>